--- a/biology/Botanique/Madame_Isaac_Pereire/Madame_Isaac_Pereire.xlsx
+++ b/biology/Botanique/Madame_Isaac_Pereire/Madame_Isaac_Pereire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Madame Isaac Pereire' est un cultivar de rosier grimpant célèbre pour son parfum et sa couleur rouge, tirant sur le carmin vif. Il appartient à la classe des rosiers Bourbon et a été obtenu en France par Armand Garçon en 1881[1], puis commercialisé par Jules Margottin fils[2],[3]. Il est nommé en l'honneur de Mme Isaac Pereire, épouse du fameux financier.
+'Madame Isaac Pereire' est un cultivar de rosier grimpant célèbre pour son parfum et sa couleur rouge, tirant sur le carmin vif. Il appartient à la classe des rosiers Bourbon et a été obtenu en France par Armand Garçon en 1881, puis commercialisé par Jules Margottin fils,. Il est nommé en l'honneur de Mme Isaac Pereire, épouse du fameux financier.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rosier grimpant tétraploïde peut atteindre une hauteur d'un mètre quatre-vingt-cinq à deux mètres cinquante. Ses fleurs avec une quarantaine de pétales ont un diamètre moyen de 12,7 cm et exhalent un parfum de framboise. Il est remontant et peut se cultiver aussi en buisson.
 On peut l'admirer notamment à la roseraie des roses de Normandie,  près de Rouen.
@@ -545,7 +559,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">'Madame Ernest Calvat' est une mutation de ce rosier avec des fleurs tirant plus sur le rose-lavande.
 'Madame Isaac Pereire' a donné naissance à 'Mistress Paul' (George Paul, 1891); à 'Philémon Cochet' (Cochet 1891).
@@ -577,7 +593,9 @@
           <t>Quelques distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Corvallis Rose Society Show. Victorian (ARS). 1999
 Houston Rose Society Show. Victorian (ARS). 1999
